--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabGren\Work Folders\Documents\GitHub\Demo_S012_Vonline\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5461B1E9-0EE1-4767-8258-C2DC237790A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F45189-FE41-4E2F-9F59-37E811D37731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="43080" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +44,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -573,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -821,12 +826,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -850,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -888,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -902,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -926,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -940,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -964,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -978,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0" shapeId="0">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1244,7 +1249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0">
+    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1287,14 +1292,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1711,7 +1716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2798,13 +2803,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="214" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -3178,14 +3183,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -3383,8 +3388,8 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3426,7 +3431,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3435,108 +3440,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="15" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="214" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="calculated" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="5"/>
-    <cellStyle name="Comma 10" xfId="6"/>
-    <cellStyle name="Comma 11" xfId="7"/>
-    <cellStyle name="Comma 2" xfId="8"/>
-    <cellStyle name="Comma 2 2" xfId="9"/>
-    <cellStyle name="Comma 2 3" xfId="10"/>
-    <cellStyle name="Comma 2 4" xfId="11"/>
-    <cellStyle name="Comma 2 5" xfId="12"/>
-    <cellStyle name="Comma 3" xfId="13"/>
-    <cellStyle name="Good" xfId="14" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8"/>
-    <cellStyle name="Hyperlink 3" xfId="16"/>
+    <cellStyle name="20 % - Dekorfärg5" xfId="1" builtinId="46"/>
+    <cellStyle name="40 % - Dekorfärg3" xfId="2" builtinId="39"/>
+    <cellStyle name="Bra" xfId="14" builtinId="26"/>
+    <cellStyle name="calculated" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Calculation 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 11" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 2 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Dekorfärg2" xfId="3" builtinId="33"/>
+    <cellStyle name="Hyperlink 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Hyperlänk" xfId="15" builtinId="8"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="18"/>
-    <cellStyle name="Normal 11" xfId="19"/>
-    <cellStyle name="Normal 11 2" xfId="20"/>
-    <cellStyle name="Normal 11 3" xfId="21"/>
-    <cellStyle name="Normal 11 4" xfId="22"/>
-    <cellStyle name="Normal 12" xfId="23"/>
-    <cellStyle name="Normal 12 2" xfId="24"/>
-    <cellStyle name="Normal 12 3" xfId="25"/>
-    <cellStyle name="Normal 12 4" xfId="26"/>
-    <cellStyle name="Normal 2" xfId="27"/>
-    <cellStyle name="Normal 2 2" xfId="28"/>
-    <cellStyle name="Normal 2 3" xfId="29"/>
-    <cellStyle name="Normal 2 4" xfId="30"/>
-    <cellStyle name="Normal 3" xfId="31"/>
-    <cellStyle name="Normal 39" xfId="32"/>
-    <cellStyle name="Normal 4" xfId="33"/>
-    <cellStyle name="Normal 4 2" xfId="34"/>
-    <cellStyle name="Normal 8" xfId="35"/>
-    <cellStyle name="Normal 9 2" xfId="36"/>
-    <cellStyle name="Normale_B2020" xfId="37"/>
-    <cellStyle name="Note 2" xfId="38"/>
-    <cellStyle name="Percent 2" xfId="39"/>
-    <cellStyle name="Percent 2 2" xfId="40"/>
-    <cellStyle name="Percent 2 2 2" xfId="41"/>
-    <cellStyle name="Percent 2 3" xfId="42"/>
-    <cellStyle name="Percent 3" xfId="43"/>
-    <cellStyle name="Percent 3 2" xfId="44"/>
-    <cellStyle name="Percent 3 2 2" xfId="45"/>
-    <cellStyle name="Percent 3 3" xfId="46"/>
-    <cellStyle name="Percent 3 4" xfId="47"/>
-    <cellStyle name="Percent 4" xfId="48"/>
-    <cellStyle name="Percent 4 2" xfId="49"/>
-    <cellStyle name="Percent 4 3" xfId="50"/>
-    <cellStyle name="Percent 4 4" xfId="51"/>
-    <cellStyle name="Percent 5" xfId="52"/>
-    <cellStyle name="Percent 5 2" xfId="53"/>
-    <cellStyle name="Percent 6" xfId="54"/>
-    <cellStyle name="Percent 6 2" xfId="55"/>
-    <cellStyle name="Percent 7" xfId="56"/>
-    <cellStyle name="Percent 8" xfId="57"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="58"/>
+    <cellStyle name="Normal 10" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 11" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 11 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 11 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 11 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 12" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 12 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 12 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 12 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 39" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 9 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normale_B2020" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Percent 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Percent 3 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Percent 3 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Percent 3 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Percent 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Percent 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Percent 4 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Percent 4 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Percent 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Percent 5 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Percent 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Percent 6 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Percent 7" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Percent 8" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4554,7 +4559,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4873,12 +4878,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5744,7 +5749,8 @@
         <v>0.35</v>
       </c>
       <c r="I23" s="25">
-        <v>1500</v>
+        <f>1500*1.25</f>
+        <v>1875</v>
       </c>
       <c r="J23" s="25">
         <v>35</v>
@@ -5849,7 +5855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6408,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7078,7 +7084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8805,10 +8811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -9842,7 +9848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -9877,9 +9883,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="AC2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
